--- a/Cebuano-Tagset.xlsx
+++ b/Cebuano-Tagset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Personal\DLSU\CSC715D Natural Language Processing\Cebuano-Tagset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Personal\DLSU\CSC715D Natural Language Processing\Cebuano-POS-Tagset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E427A7-90B4-45A7-90E3-88DEF86F7B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2522E1-7A80-4412-8358-A984A07DD06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E735FC58-E759-4212-AD37-01F99206137E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="300">
   <si>
     <t>POS Tag</t>
   </si>
@@ -853,13 +853,97 @@
   </si>
   <si>
     <t>hoy, aguy, ha, atay, giatay, yati</t>
+  </si>
+  <si>
+    <t>mag-, ma-, mang-, unta, ka- + verb, maki- +verb, makipag- + verb, mahimong</t>
+  </si>
+  <si>
+    <t>kinahanglan, puydi, dapat, gusto, ayaw, buot</t>
+  </si>
+  <si>
+    <t>nahulog, nahug, nikaon, gipahawa, nag-, na-</t>
+  </si>
+  <si>
+    <t>nagakaon, ginapahawa, naga- +verb, ginapa- +verb</t>
+  </si>
+  <si>
+    <t>mahulog, mukaon, pahawaon, ma- +verb, mu- +verb, pa- + verb -on</t>
+  </si>
+  <si>
+    <t>mag-, ma-, mang-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -on, -an, i-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -an, -on, pag…an</t>
+  </si>
+  <si>
+    <t>gipag-</t>
+  </si>
+  <si>
+    <t>hitsuraan, buotan, tibuok</t>
+  </si>
+  <si>
+    <t>pareho, sama sa,</t>
+  </si>
+  <si>
+    <t>mas, medyo, labi na, hilabihang</t>
+  </si>
+  <si>
+    <t>pinaka-</t>
+  </si>
+  <si>
+    <t>dyutay</t>
+  </si>
+  <si>
+    <t>dili kaayo</t>
+  </si>
+  <si>
+    <t>noun + -ka, tulo ka, lima ka</t>
+  </si>
+  <si>
+    <t>lima ka guhit, upat ka guhit, kawhaan ka kilometro</t>
+  </si>
+  <si>
+    <t>kung, pag</t>
+  </si>
+  <si>
+    <t>tungod sa, mao nga</t>
+  </si>
+  <si>
+    <t>mahitungod sa, ingon ni, subay sa, pangutana ni</t>
+  </si>
+  <si>
+    <t>ngano, unsaon, unsa</t>
+  </si>
+  <si>
+    <t>lagi, oo, o, tinuod, tama diay</t>
+  </si>
+  <si>
+    <t>dili gani, dili gayud, dili jud, ayaw, ambot</t>
+  </si>
+  <si>
+    <t>kada, usab, karon, pirmi, pagkatapos, sauna, kaniadto, unya, panagsa, bago, sugod, hangtod, ganina, ugma, gikan</t>
+  </si>
+  <si>
+    <t>basin, murag, siguro</t>
+  </si>
+  <si>
+    <t>ila, ilalom, ilawom, likod, ibabaw, atubangan, taga, padulong sa</t>
+  </si>
+  <si>
+    <t>na, pa, pud, man, kay, diay, lang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,6 +971,13 @@
       <sz val="12"/>
       <color rgb="FF004B69"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1007,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1045,6 +1136,48 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1057,65 +1190,53 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6358E9-E581-4B1E-950D-FB9AFAE3639D}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1442,7 +1563,7 @@
     <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="41.44140625" customWidth="1"/>
-    <col min="4" max="4" width="39.88671875" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1">
@@ -1455,7 +1576,7 @@
       <c r="C1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="35" t="s">
         <v>264</v>
       </c>
     </row>
@@ -1469,7 +1590,7 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="36" t="s">
         <v>265</v>
       </c>
     </row>
@@ -1483,7 +1604,7 @@
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="37" t="s">
         <v>242</v>
       </c>
     </row>
@@ -1497,7 +1618,7 @@
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="38" t="s">
         <v>243</v>
       </c>
     </row>
@@ -1511,7 +1632,7 @@
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="37" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1525,7 +1646,7 @@
       <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1539,7 +1660,7 @@
       <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1553,7 +1674,7 @@
       <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="38" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1567,7 +1688,7 @@
       <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="37" t="s">
         <v>245</v>
       </c>
     </row>
@@ -1581,31 +1702,31 @@
       <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="38" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.399999999999999">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="27" t="s">
         <v>247</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="40" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="37" t="s">
         <v>249</v>
       </c>
     </row>
@@ -1619,7 +1740,7 @@
       <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="38" t="s">
         <v>250</v>
       </c>
     </row>
@@ -1633,57 +1754,57 @@
       <c r="C14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="41" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="43" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="42" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="43" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1697,296 +1818,309 @@
       <c r="C19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="41" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="42" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="43" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="24" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="42" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="39" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.2" thickBot="1">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="43" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.2" thickBot="1">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="32"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="42" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21" thickBot="1">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="43" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="42" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="43" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>85</v>
-      </c>
+      <c r="D32" s="44"/>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="22" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="45" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="24" t="s">
         <v>90</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="39" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21" thickBot="1">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="18" t="s">
         <v>93</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>94</v>
       </c>
+      <c r="D35" s="38" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="D36" s="46" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="22" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="43" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="24" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="42" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="18" t="s">
         <v>105</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>106</v>
       </c>
+      <c r="D39" s="46" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="16" t="s">
         <v>108</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1">
-      <c r="A41" s="23" t="s">
+      <c r="D40" s="46" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="22.2" thickBot="1">
+      <c r="A41" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>112</v>
       </c>
+      <c r="D41" s="46" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -1994,361 +2128,436 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>118</v>
       </c>
+      <c r="D43" s="46" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="16" t="s">
         <v>120</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="D44" s="46" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>124</v>
       </c>
+      <c r="D45" s="46" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="D46" s="46" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="18" t="s">
         <v>129</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="D47" s="46" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="16" t="s">
         <v>132</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1">
-      <c r="A49" s="23" t="s">
+      <c r="D48" s="46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1">
+      <c r="A49" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="18" t="s">
         <v>135</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" thickBot="1">
-      <c r="A50" s="25" t="s">
+    <row r="50" spans="1:4" ht="15" thickBot="1">
+      <c r="A50" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="16" t="s">
         <v>138</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A51" s="26" t="s">
+      <c r="D50" s="46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.4" customHeight="1">
+      <c r="A51" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="29" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" thickBot="1">
-      <c r="A52" s="28"/>
-      <c r="B52" s="24" t="s">
+      <c r="D51" s="46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1">
+      <c r="A52" s="32"/>
+      <c r="B52" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="16"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="19" t="s">
+      <c r="C52" s="30"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="27" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22" t="s">
+      <c r="D53" s="46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1">
+      <c r="A54" s="26"/>
+      <c r="B54" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="14"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="26" t="s">
+      <c r="C54" s="28"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="29" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" thickBot="1">
-      <c r="A56" s="28"/>
-      <c r="B56" s="24" t="s">
+      <c r="D55" s="46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" thickBot="1">
+      <c r="A56" s="32"/>
+      <c r="B56" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="16"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="19" t="s">
+      <c r="C56" s="30"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22" t="s">
+      <c r="D57" s="46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1">
+      <c r="A58" s="26"/>
+      <c r="B58" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="14"/>
-    </row>
-    <row r="59" spans="1:3" ht="15" thickBot="1">
-      <c r="A59" s="23" t="s">
+      <c r="C58" s="28"/>
+      <c r="D58" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1">
+      <c r="A59" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="18" t="s">
         <v>157</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1">
-      <c r="A60" s="25" t="s">
+      <c r="D59" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1">
+      <c r="A60" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="16" t="s">
         <v>160</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21" thickBot="1">
-      <c r="A61" s="23" t="s">
+    <row r="61" spans="1:4" ht="21" thickBot="1">
+      <c r="A61" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="18" t="s">
         <v>163</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" thickBot="1">
-      <c r="A62" s="25" t="s">
+    <row r="62" spans="1:4" ht="15" thickBot="1">
+      <c r="A62" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="16" t="s">
         <v>166</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" thickBot="1">
-      <c r="A63" s="23" t="s">
+      <c r="D62" s="46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1">
+      <c r="A63" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="18" t="s">
         <v>169</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" thickBot="1">
-      <c r="A64" s="25" t="s">
+      <c r="D63" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1">
+      <c r="A64" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="16" t="s">
         <v>172</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>173</v>
       </c>
+      <c r="D64" s="46" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="18" t="s">
         <v>175</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>176</v>
       </c>
+      <c r="D65" s="46" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="21" thickBot="1">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="16" t="s">
         <v>178</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>179</v>
       </c>
+      <c r="D66" s="46" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="15" thickBot="1">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="18" t="s">
         <v>181</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>182</v>
       </c>
+      <c r="D67" s="46" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="21" thickBot="1">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="16" t="s">
         <v>184</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>185</v>
       </c>
+      <c r="D68" s="46" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="21" thickBot="1">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>188</v>
       </c>
+      <c r="D69" s="46" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="41.4" thickBot="1">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>191</v>
       </c>
+      <c r="D70" s="46" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="15" thickBot="1">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="18" t="s">
         <v>193</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="21" thickBot="1">
-      <c r="A72" s="25" t="s">
+      <c r="D71" s="46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="22.2" thickBot="1">
+      <c r="A72" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="16" t="s">
         <v>196</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>197</v>
       </c>
+      <c r="D72" s="46" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="21" thickBot="1">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>200</v>
       </c>
+      <c r="D73" s="8" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="15" thickBot="1">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="16" t="s">
         <v>202</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="46" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21" thickBot="1">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="18" t="s">
         <v>205</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="46" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" thickBot="1">
-      <c r="A76" s="25"/>
-      <c r="B76" s="22" t="s">
+      <c r="A76" s="19"/>
+      <c r="B76" s="16" t="s">
         <v>207</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -2356,33 +2565,33 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" thickBot="1">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="18" t="s">
         <v>210</v>
       </c>
       <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:4" ht="15" thickBot="1">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="16" t="s">
         <v>212</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="46" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" thickBot="1">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="18" t="s">
         <v>215</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -2390,114 +2599,120 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="16" t="s">
         <v>218</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="39" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="18" t="s">
         <v>221</v>
       </c>
       <c r="C81" s="4"/>
     </row>
     <row r="82" spans="1:4" ht="15" thickBot="1">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="16" t="s">
         <v>223</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="37" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" thickBot="1">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="18" t="s">
         <v>226</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="38" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" thickBot="1">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="16" t="s">
         <v>229</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="37" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" thickBot="1">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="18" t="s">
         <v>232</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="38" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" thickBot="1">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="37" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" thickBot="1">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="18" t="s">
         <v>238</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="38" t="s">
         <v>239</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C55:C56"/>
@@ -2506,12 +2721,6 @@
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2543,7 +2752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.2" thickBot="1">
+    <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2554,7 +2763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="41.4" thickBot="1">
+    <row r="3" spans="1:3" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2565,7 +2774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" thickBot="1">
+    <row r="4" spans="1:3" ht="15" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2576,7 +2785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="41.4" thickBot="1">
+    <row r="5" spans="1:3" ht="15" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -2587,7 +2796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51.6" thickBot="1">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -2598,7 +2807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.2" thickBot="1">
+    <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -2609,7 +2818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="61.8" thickBot="1">
+    <row r="8" spans="1:3" ht="15" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -2620,7 +2829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="72" thickBot="1">
+    <row r="9" spans="1:3" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -2631,7 +2840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="51.6" thickBot="1">
+    <row r="10" spans="1:3" ht="15" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
@@ -2642,25 +2851,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="61.2">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" thickBot="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="61.8" thickBot="1">
+    <row r="13" spans="1:3" ht="15" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
@@ -2671,25 +2880,25 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="61.2">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.2" thickBot="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="61.8" thickBot="1">
+    <row r="16" spans="1:3" ht="15" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
@@ -2700,7 +2909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.2" thickBot="1">
+    <row r="17" spans="1:3" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
@@ -2711,7 +2920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="51.6" thickBot="1">
+    <row r="18" spans="1:3" ht="15" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>47</v>
       </c>
@@ -2722,25 +2931,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="61.2">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="27" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="51.6" thickBot="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+    <row r="20" spans="1:3" ht="15" thickBot="1">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="41.4" thickBot="1">
+    <row r="21" spans="1:3" ht="15" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
@@ -2751,7 +2960,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.2" thickBot="1">
+    <row r="22" spans="1:3" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -2762,7 +2971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="41.4" thickBot="1">
+    <row r="23" spans="1:3" ht="15" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>60</v>
       </c>
@@ -2773,7 +2982,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" thickBot="1">
+    <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>63</v>
       </c>
@@ -2784,7 +2993,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="31.2" thickBot="1">
+    <row r="25" spans="1:3" ht="15" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
@@ -2795,7 +3004,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.2" thickBot="1">
+    <row r="26" spans="1:3" ht="15" thickBot="1">
       <c r="A26" s="9" t="s">
         <v>69</v>
       </c>
@@ -2806,7 +3015,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="204.6" thickBot="1">
+    <row r="27" spans="1:3" ht="31.2" thickBot="1">
       <c r="A27" s="7" t="s">
         <v>72</v>
       </c>
@@ -2815,7 +3024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="174" thickBot="1">
+    <row r="28" spans="1:3" ht="31.2" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>74</v>
       </c>
@@ -2824,7 +3033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="123" thickBot="1">
+    <row r="29" spans="1:3" ht="21" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>76</v>
       </c>
@@ -2842,7 +3051,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.2" thickBot="1">
+    <row r="31" spans="1:3" ht="15" thickBot="1">
       <c r="A31" s="7" t="s">
         <v>80</v>
       </c>
@@ -2853,7 +3062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.2" thickBot="1">
+    <row r="32" spans="1:3" ht="15" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>83</v>
       </c>
@@ -2864,7 +3073,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21" thickBot="1">
+    <row r="33" spans="1:3" ht="15" thickBot="1">
       <c r="A33" s="7" t="s">
         <v>86</v>
       </c>
@@ -2875,7 +3084,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21" thickBot="1">
+    <row r="34" spans="1:3" ht="15" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>89</v>
       </c>
@@ -2886,7 +3095,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="102.6" thickBot="1">
+    <row r="35" spans="1:3" ht="21" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>92</v>
       </c>
@@ -2897,7 +3106,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="72" thickBot="1">
+    <row r="36" spans="1:3" ht="15" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>95</v>
       </c>
@@ -2908,7 +3117,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.2" thickBot="1">
+    <row r="37" spans="1:3" ht="15" thickBot="1">
       <c r="A37" s="7" t="s">
         <v>98</v>
       </c>
@@ -2919,7 +3128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21" thickBot="1">
+    <row r="38" spans="1:3" ht="15" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>101</v>
       </c>
@@ -2930,7 +3139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="51.6" thickBot="1">
+    <row r="39" spans="1:3" ht="15" thickBot="1">
       <c r="A39" s="7" t="s">
         <v>104</v>
       </c>
@@ -2941,7 +3150,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="51.6" thickBot="1">
+    <row r="40" spans="1:3" ht="15" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>107</v>
       </c>
@@ -2952,7 +3161,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="41.4" thickBot="1">
+    <row r="41" spans="1:3" ht="15" thickBot="1">
       <c r="A41" s="7" t="s">
         <v>110</v>
       </c>
@@ -2963,7 +3172,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="51.6" thickBot="1">
+    <row r="42" spans="1:3" ht="15" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>113</v>
       </c>
@@ -2974,7 +3183,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.2" thickBot="1">
+    <row r="43" spans="1:3" ht="15" thickBot="1">
       <c r="A43" s="7" t="s">
         <v>116</v>
       </c>
@@ -2985,7 +3194,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21" thickBot="1">
+    <row r="44" spans="1:3" ht="15" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>119</v>
       </c>
@@ -2996,7 +3205,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21" thickBot="1">
+    <row r="45" spans="1:3" ht="15" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>122</v>
       </c>
@@ -3007,7 +3216,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21" thickBot="1">
+    <row r="46" spans="1:3" ht="15" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>125</v>
       </c>
@@ -3018,7 +3227,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21" thickBot="1">
+    <row r="47" spans="1:3" ht="15" thickBot="1">
       <c r="A47" s="7" t="s">
         <v>128</v>
       </c>
@@ -3029,7 +3238,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="41.4" thickBot="1">
+    <row r="48" spans="1:3" ht="15" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>131</v>
       </c>
@@ -3040,7 +3249,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" thickBot="1">
+    <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="3" t="s">
         <v>134</v>
       </c>
@@ -3051,7 +3260,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="51.6" thickBot="1">
+    <row r="50" spans="1:3" ht="15" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>137</v>
       </c>
@@ -3063,78 +3272,78 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="60.6" customHeight="1">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="29" t="s">
         <v>140</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="29" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="41.4" thickBot="1">
-      <c r="A52" s="16"/>
+    <row r="52" spans="1:3" ht="15" thickBot="1">
+      <c r="A52" s="30"/>
       <c r="B52" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="16"/>
-    </row>
-    <row r="53" spans="1:3" ht="40.799999999999997">
-      <c r="A53" s="13" t="s">
+      <c r="C52" s="30"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="27" t="s">
         <v>144</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="21" thickBot="1">
-      <c r="A54" s="14"/>
+    <row r="54" spans="1:3" ht="15" thickBot="1">
+      <c r="A54" s="28"/>
       <c r="B54" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="14"/>
-    </row>
-    <row r="55" spans="1:3" ht="40.799999999999997">
-      <c r="A55" s="15" t="s">
+      <c r="C54" s="28"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="29" t="s">
         <v>148</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="21" thickBot="1">
-      <c r="A56" s="16"/>
+    <row r="56" spans="1:3" ht="15" thickBot="1">
+      <c r="A56" s="30"/>
       <c r="B56" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="16"/>
-    </row>
-    <row r="57" spans="1:3" ht="40.799999999999997">
-      <c r="A57" s="13" t="s">
+      <c r="C56" s="30"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="27" t="s">
         <v>152</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="27" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="31.2" thickBot="1">
-      <c r="A58" s="14"/>
+    <row r="58" spans="1:3" ht="15" thickBot="1">
+      <c r="A58" s="28"/>
       <c r="B58" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="14"/>
-    </row>
-    <row r="59" spans="1:3" ht="41.4" thickBot="1">
+      <c r="C58" s="28"/>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>156</v>
       </c>
@@ -3145,7 +3354,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="31.2" thickBot="1">
+    <row r="60" spans="1:3" ht="15" thickBot="1">
       <c r="A60" s="9" t="s">
         <v>159</v>
       </c>
@@ -3156,7 +3365,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="82.2" thickBot="1">
+    <row r="61" spans="1:3" ht="21" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>162</v>
       </c>
@@ -3167,7 +3376,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="51.6" thickBot="1">
+    <row r="62" spans="1:3" ht="15" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>165</v>
       </c>
@@ -3178,7 +3387,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="51.6" thickBot="1">
+    <row r="63" spans="1:3" ht="15" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>168</v>
       </c>
@@ -3189,7 +3398,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="31.2" thickBot="1">
+    <row r="64" spans="1:3" ht="15" thickBot="1">
       <c r="A64" s="5" t="s">
         <v>171</v>
       </c>
@@ -3200,7 +3409,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="41.4" thickBot="1">
+    <row r="65" spans="1:3" ht="15" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>174</v>
       </c>
@@ -3211,7 +3420,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="133.19999999999999" thickBot="1">
+    <row r="66" spans="1:3" ht="21" thickBot="1">
       <c r="A66" s="5" t="s">
         <v>177</v>
       </c>
@@ -3222,7 +3431,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="51.6" thickBot="1">
+    <row r="67" spans="1:3" ht="15" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>180</v>
       </c>
@@ -3233,7 +3442,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="92.4" thickBot="1">
+    <row r="68" spans="1:3" ht="21" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>183</v>
       </c>
@@ -3244,7 +3453,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="102.6" thickBot="1">
+    <row r="69" spans="1:3" ht="21" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>186</v>
       </c>
@@ -3255,7 +3464,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="265.8" thickBot="1">
+    <row r="70" spans="1:3" ht="41.4" thickBot="1">
       <c r="A70" s="5" t="s">
         <v>189</v>
       </c>
@@ -3266,7 +3475,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="72" thickBot="1">
+    <row r="71" spans="1:3" ht="15" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>192</v>
       </c>
@@ -3277,7 +3486,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="123" thickBot="1">
+    <row r="72" spans="1:3" ht="21" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>195</v>
       </c>
@@ -3288,7 +3497,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="133.19999999999999" thickBot="1">
+    <row r="73" spans="1:3" ht="21" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>198</v>
       </c>
@@ -3299,7 +3508,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="31.2" thickBot="1">
+    <row r="74" spans="1:3" ht="15" thickBot="1">
       <c r="A74" s="5" t="s">
         <v>201</v>
       </c>
@@ -3310,7 +3519,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="92.4" thickBot="1">
+    <row r="75" spans="1:3" ht="21" thickBot="1">
       <c r="A75" s="7" t="s">
         <v>204</v>
       </c>
@@ -3321,7 +3530,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21" thickBot="1">
+    <row r="76" spans="1:3" ht="15" thickBot="1">
       <c r="A76" s="9"/>
       <c r="B76" s="10" t="s">
         <v>207</v>
@@ -3330,7 +3539,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="31.2" thickBot="1">
+    <row r="77" spans="1:3" ht="15" thickBot="1">
       <c r="A77" s="3" t="s">
         <v>209</v>
       </c>
@@ -3339,7 +3548,7 @@
       </c>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="1:3" ht="31.2" thickBot="1">
+    <row r="78" spans="1:3" ht="15" thickBot="1">
       <c r="A78" s="5" t="s">
         <v>211</v>
       </c>
@@ -3350,7 +3559,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="61.8" thickBot="1">
+    <row r="79" spans="1:3" ht="15" thickBot="1">
       <c r="A79" s="3" t="s">
         <v>214</v>
       </c>
@@ -3361,7 +3570,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="31.2" thickBot="1">
+    <row r="80" spans="1:3" ht="15" thickBot="1">
       <c r="A80" s="9" t="s">
         <v>217</v>
       </c>
@@ -3372,7 +3581,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="31.2" thickBot="1">
+    <row r="81" spans="1:3" ht="15" thickBot="1">
       <c r="A81" s="3" t="s">
         <v>220</v>
       </c>
@@ -3392,7 +3601,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21" thickBot="1">
+    <row r="83" spans="1:3" ht="15" thickBot="1">
       <c r="A83" s="7" t="s">
         <v>225</v>
       </c>
@@ -3403,7 +3612,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21" thickBot="1">
+    <row r="84" spans="1:3" ht="15" thickBot="1">
       <c r="A84" s="5" t="s">
         <v>228</v>
       </c>
@@ -3425,7 +3634,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21" thickBot="1">
+    <row r="86" spans="1:3" ht="15" thickBot="1">
       <c r="A86" s="5" t="s">
         <v>234</v>
       </c>
@@ -3436,7 +3645,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="51.6" thickBot="1">
+    <row r="87" spans="1:3" ht="15" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>237</v>
       </c>
@@ -3448,15 +3657,21 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="17"/>
-    </row>
-    <row r="89" spans="1:3" ht="109.2">
-      <c r="A89" s="18" t="s">
+      <c r="A88" s="13"/>
+    </row>
+    <row r="89" spans="1:3" ht="93.6">
+      <c r="A89" s="14" t="s">
         <v>240</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A51:A52"/>
@@ -3465,12 +3680,6 @@
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
